--- a/Civilworks cost/Soil Compaction/Output.xlsx
+++ b/Civilworks cost/Soil Compaction/Output.xlsx
@@ -1,65 +1,189 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\Civilworks cost\Soil Compaction\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input Parameter" sheetId="1" r:id="rId1"/>
+    <sheet name="Design Summary" sheetId="2" r:id="rId2"/>
+    <sheet name="Design Details" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Symbol</t>
+  </si>
+  <si>
     <t>unit</t>
   </si>
   <si>
     <t>value</t>
   </si>
   <si>
-    <t>gamma</t>
-  </si>
-  <si>
-    <t>Hi</t>
-  </si>
-  <si>
-    <t>sigmanot</t>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>Roller Type</t>
+  </si>
+  <si>
+    <t>Roller Weight</t>
+  </si>
+  <si>
+    <t>drum dia</t>
+  </si>
+  <si>
+    <t>drum length</t>
+  </si>
+  <si>
+    <t>tire pressure</t>
+  </si>
+  <si>
+    <t>covearge ratio</t>
+  </si>
+  <si>
+    <t>Dynamic Factor</t>
+  </si>
+  <si>
+    <t>gammanot</t>
+  </si>
+  <si>
+    <t>gammafinal</t>
   </si>
   <si>
     <t>fine_percent</t>
   </si>
   <si>
-    <t>conatact_width</t>
+    <t>minimum lift thickness</t>
+  </si>
+  <si>
+    <t>maximum lift thickness</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Lmin</t>
+  </si>
+  <si>
+    <t>Lmax</t>
+  </si>
+  <si>
+    <t>ton</t>
+  </si>
+  <si>
+    <t>meter</t>
+  </si>
+  <si>
+    <t>ton/sqm</t>
   </si>
   <si>
     <t>ton/cum</t>
   </si>
   <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>ton/sqm</t>
-  </si>
-  <si>
     <t>percent</t>
   </si>
   <si>
-    <t>meter</t>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>1:Pneumatic 2:Smooth Wheel 3:Grid Roller 4:Sheepfoot Roller 5:Vibratory Roller</t>
+  </si>
+  <si>
+    <t>0.5 for Grid Roller, 0.8-0.12 for sheepfoot roller 1 for Other roller</t>
+  </si>
+  <si>
+    <t>2.0-2.50 for roller type 5  1 for all others</t>
+  </si>
+  <si>
+    <t>initial dry density of loose fill</t>
+  </si>
+  <si>
+    <t>final dry density of embankment Soil</t>
+  </si>
+  <si>
+    <t>in decimal  e.g. 10% for 0.1</t>
+  </si>
+  <si>
+    <t>Design Parameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roller </t>
+  </si>
+  <si>
+    <t>Ulitmate Bearing Capacity</t>
+  </si>
+  <si>
+    <t>Roller Contact Pressure</t>
+  </si>
+  <si>
+    <t>Max Lift Thickness</t>
+  </si>
+  <si>
+    <t>No of Passes</t>
+  </si>
+  <si>
+    <t>Nos</t>
+  </si>
+  <si>
+    <t>30.0 Ton Vibratory Roller</t>
+  </si>
+  <si>
+    <t>Pass_No</t>
+  </si>
+  <si>
+    <t>Initial_Dry_Density</t>
+  </si>
+  <si>
+    <t>Initial-Lift_Thickness</t>
+  </si>
+  <si>
+    <t>Elastic_Modulus</t>
+  </si>
+  <si>
+    <t>Heff</t>
+  </si>
+  <si>
+    <t>Settlement</t>
+  </si>
+  <si>
+    <t>Final-Lift_Thickness</t>
+  </si>
+  <si>
+    <t>Final_Dry_Density</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,10 +235,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -122,6 +249,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -168,7 +303,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -200,9 +335,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,6 +370,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -409,92 +546,462 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2.5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>1.4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>1.75</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11">
+        <v>0.5706</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>41.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>0.5706</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D6">
-        <v>0.36</v>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="D2" s="2">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2">
+        <v>443</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0.1399312021708507</v>
+      </c>
+      <c r="H2" s="2">
+        <v>8.0068797829149307</v>
+      </c>
+      <c r="I2" s="2">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>3.85</v>
+      </c>
+      <c r="D3" s="2">
+        <v>8.0068797829149307</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3984664</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="G3" s="2">
+        <v>9.3964760893264784E-6</v>
+      </c>
+      <c r="H3" s="2">
+        <v>8.0059401353059965</v>
+      </c>
+      <c r="I3" s="2">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3.85</v>
+      </c>
+      <c r="D4" s="2">
+        <v>8.0059401353059965</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3984664</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="G4" s="2">
+        <v>9.3964760893264784E-6</v>
+      </c>
+      <c r="H4" s="2">
+        <v>8.005000487697064</v>
+      </c>
+      <c r="I4" s="2">
+        <v>3.85</v>
       </c>
     </row>
   </sheetData>

--- a/Civilworks cost/Soil Compaction/Output.xlsx
+++ b/Civilworks cost/Soil Compaction/Output.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\Civilworks cost\Soil Compaction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Website_24_11_2020\cmis6\cmis6\Civilworks cost\Soil Compaction\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Input Parameter" sheetId="1" r:id="rId1"/>
@@ -550,15 +550,12 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="23.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -589,7 +586,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -606,7 +603,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -623,7 +620,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -640,7 +637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -654,7 +651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,7 +665,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -685,7 +682,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -702,7 +699,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,7 +716,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -739,7 +736,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -759,7 +756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -788,11 +785,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>36</v>
       </c>
@@ -803,70 +807,71 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>3</v>
       </c>
     </row>
@@ -879,19 +884,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>44</v>
       </c>
@@ -917,7 +919,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -937,16 +939,16 @@
         <v>0.66</v>
       </c>
       <c r="G2" s="2">
-        <v>0.1399312021708507</v>
+        <v>4.6643734056950228E-2</v>
       </c>
       <c r="H2" s="2">
-        <v>8.0068797829149307</v>
+        <v>17.33562659430498</v>
       </c>
       <c r="I2" s="2">
-        <v>3.85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -954,28 +956,28 @@
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>3.85</v>
+        <v>1.78</v>
       </c>
       <c r="D3" s="2">
-        <v>8.0068797829149307</v>
+        <v>17.33562659430498</v>
       </c>
       <c r="E3" s="2">
-        <v>3984664</v>
+        <v>3847</v>
       </c>
       <c r="F3" s="2">
-        <v>0.22</v>
+        <v>0.04</v>
       </c>
       <c r="G3" s="2">
-        <v>9.3964760893264784E-6</v>
+        <v>9.5749433721468427E-4</v>
       </c>
       <c r="H3" s="2">
-        <v>8.0059401353059965</v>
+        <v>17.239877160583511</v>
       </c>
       <c r="I3" s="2">
-        <v>3.85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -983,25 +985,25 @@
         <v>3</v>
       </c>
       <c r="C4" s="2">
-        <v>3.85</v>
+        <v>1.79</v>
       </c>
       <c r="D4" s="2">
-        <v>8.0059401353059965</v>
+        <v>17.239877160583511</v>
       </c>
       <c r="E4" s="2">
-        <v>3984664</v>
+        <v>4046</v>
       </c>
       <c r="F4" s="2">
-        <v>0.22</v>
+        <v>0.03</v>
       </c>
       <c r="G4" s="2">
-        <v>9.3964760893264784E-6</v>
+        <v>-3.1564673636809833E-4</v>
       </c>
       <c r="H4" s="2">
-        <v>8.005000487697064</v>
+        <v>17.271441834220319</v>
       </c>
       <c r="I4" s="2">
-        <v>3.85</v>
+        <v>1.79</v>
       </c>
     </row>
   </sheetData>
